--- a/v3/example/ExampleType.xlsx
+++ b/v3/example/ExampleType.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="9000"/>
+    <workbookView windowWidth="28695" windowHeight="15420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>表名</t>
   </si>
@@ -34,6 +34,12 @@
     <t>默认值</t>
   </si>
   <si>
+    <t>数组</t>
+  </si>
+  <si>
+    <t>切割符</t>
+  </si>
+  <si>
     <t>ExampleData</t>
   </si>
   <si>
@@ -73,10 +79,19 @@
     <t>ActorType</t>
   </si>
   <si>
+    <t>技能列表</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
     <t>None</t>
-  </si>
-  <si>
-    <t>int</t>
   </si>
   <si>
     <t>法鸡</t>
@@ -108,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -142,14 +157,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,7 +217,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,6 +233,53 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,100 +292,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -293,13 +308,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,7 +386,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,37 +422,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,115 +470,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,6 +541,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -537,41 +561,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,6 +588,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -607,10 +622,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,16 +637,16 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,112 +655,112 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,13 +1096,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -1095,7 +1110,7 @@
     <col min="5" max="5" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1113,184 +1128,204 @@
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" ht="16.5" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" ht="16.5" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" ht="16.5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="1:6">
+    <row r="6" ht="16.5" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="F8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F9" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="3">
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:5">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
     </row>
     <row r="12" ht="16.5" spans="1:5">
       <c r="A12" s="3"/>
@@ -1306,6 +1341,13 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
+    <row r="14" ht="16.5" spans="1:5">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/v3/example/ExampleType.xlsx
+++ b/v3/example/ExampleType.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
-  <si>
-    <t>表名</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+  <si>
+    <t>种类</t>
   </si>
   <si>
     <t>对象类型</t>
@@ -40,6 +40,9 @@
     <t>切割符</t>
   </si>
   <si>
+    <t>表头</t>
+  </si>
+  <si>
     <t>ExampleData</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>是</t>
+  </si>
+  <si>
+    <t>枚举</t>
   </si>
   <si>
     <t>None</t>
@@ -123,9 +129,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -156,28 +162,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -187,7 +171,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,98 +298,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -308,49 +314,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,133 +488,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,6 +519,51 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,24 +594,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,47 +620,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -622,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,7 +640,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,124 +649,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,7 +1105,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1141,16 +1147,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3"/>
     </row>
@@ -1159,16 +1165,16 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -1177,16 +1183,16 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -1195,16 +1201,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -1213,35 +1219,35 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -1249,19 +1255,19 @@
     </row>
     <row r="8" ht="16.5" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1269,19 +1275,19 @@
     </row>
     <row r="9" ht="16.5" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="3">
         <v>2</v>
@@ -1289,19 +1295,19 @@
     </row>
     <row r="10" ht="16.5" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" s="3">
         <v>3</v>
@@ -1309,19 +1315,19 @@
     </row>
     <row r="11" ht="16.5" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="3">
         <v>4</v>

--- a/v3/example/ExampleType.xlsx
+++ b/v3/example/ExampleType.xlsx
@@ -31,12 +31,12 @@
     <t>字段类型</t>
   </si>
   <si>
+    <t>数组</t>
+  </si>
+  <si>
     <t>默认值</t>
   </si>
   <si>
-    <t>数组</t>
-  </si>
-  <si>
     <t>切割符</t>
   </si>
   <si>
@@ -52,7 +52,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>整形</t>
+    <t>int</t>
   </si>
   <si>
     <t>名称</t>
@@ -70,7 +70,7 @@
     <t>Rate</t>
   </si>
   <si>
-    <t>浮点</t>
+    <t>float</t>
   </si>
   <si>
     <t>类型</t>
@@ -88,10 +88,10 @@
     <t>Skill</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>是</t>
+  </si>
+  <si>
+    <t>|</t>
   </si>
   <si>
     <t>枚举</t>
@@ -129,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -155,10 +155,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,6 +171,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -178,46 +209,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,16 +253,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,9 +278,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,44 +296,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -314,187 +314,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,47 +523,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,8 +550,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,20 +591,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,133 +640,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1142,7 +1142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:6">
+    <row r="2" ht="16.5" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1158,9 +1158,9 @@
       <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
-    <row r="3" ht="16.5" spans="1:6">
+    <row r="3" ht="16.5" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1176,9 +1176,9 @@
       <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
+    <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1194,9 +1194,9 @@
       <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
-    <row r="5" ht="16.5" spans="1:6">
+    <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1212,9 +1212,9 @@
       <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
+    <row r="6" ht="16.5" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1228,14 +1228,17 @@
         <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:6">
+    <row r="7" ht="16.5" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -1247,13 +1250,13 @@
         <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="3">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:6">
+    <row r="8" ht="16.5" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -1267,13 +1270,13 @@
         <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="3">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:6">
+    <row r="9" ht="16.5" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -1287,13 +1290,13 @@
         <v>31</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="3">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:6">
+    <row r="10" ht="16.5" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -1307,13 +1310,13 @@
         <v>33</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="3">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:6">
+    <row r="11" ht="16.5" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1327,9 +1330,9 @@
         <v>35</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="3">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3">
         <v>4</v>
       </c>
     </row>

--- a/v3/example/ExampleType.xlsx
+++ b/v3/example/ExampleType.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="15420"/>
+    <workbookView windowWidth="28080" windowHeight="15420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
